--- a/AAII_Financials/Yearly/OPCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OPCH_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>OPCH</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2310400</v>
+      </c>
+      <c r="E8" s="3">
         <v>708900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>817200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>935600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>982200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>922700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>696500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>593400</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1797400</v>
+      </c>
+      <c r="E9" s="3">
         <v>465900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>547900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>673500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>722300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1394900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1015700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>397500</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E10" s="3">
         <v>243000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>269200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>262100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>260000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-472200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-319200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>195900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E14" s="3">
         <v>6500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>26100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>276200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>55600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>39700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9200</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E15" s="3">
         <v>23600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>27700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>29500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>26900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2310700</v>
+      </c>
+      <c r="E17" s="3">
         <v>702800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>832000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>936100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1271600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1022800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>738600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>586800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>6100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-289400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-42100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>34500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-24800</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E21" s="3">
         <v>30000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-232100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-93900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14200</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E22" s="3">
         <v>57400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>52100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>37600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>71400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>38300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-51000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-67400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-326400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-138700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-70400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19400</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
-        <v>63600</v>
-      </c>
       <c r="F24" s="3">
+        <v>-71800</v>
+      </c>
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-21500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-51600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-131000</v>
-      </c>
       <c r="F26" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-36200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-304800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-149900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-71600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12300</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-62800</v>
       </c>
-      <c r="E27" s="3">
-        <v>-141800</v>
-      </c>
       <c r="F27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-45300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-314600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-149900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-71600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,36 +1283,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
-        <v>66800</v>
-      </c>
       <c r="F29" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="G29" s="3">
         <v>-6600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>4700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>2500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>2000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>77000</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-34500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>24800</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-62900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-75000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-51800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-309900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-147500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-69700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>64700</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-62900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-75000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-51800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-309900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-147500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-69700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>64700</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E41" s="3">
         <v>14500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>62100</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,198 +1616,222 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>324400</v>
+      </c>
+      <c r="E43" s="3">
         <v>114900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>85500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>109100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>97400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>131700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>172200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129100</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E44" s="3">
         <v>26700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>38000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>36200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>43000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>37200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>34300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>34000</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E45" s="3">
         <v>18600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10200</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>558700</v>
+      </c>
+      <c r="E46" s="3">
         <v>174700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>186600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>173300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>183700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>188200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>237000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>235400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>10000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>196700</v>
+      </c>
+      <c r="E48" s="3">
         <v>28800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>38200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>41200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1811500</v>
+      </c>
+      <c r="E49" s="3">
         <v>377700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>386300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>397000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>313900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>570800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>603600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>368300</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>27500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>70600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4900</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2589500</v>
+      </c>
+      <c r="E54" s="3">
         <v>583900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>603100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>605000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>530600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>824700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>936900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>642400</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>221100</v>
+      </c>
+      <c r="E57" s="3">
         <v>67000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>66000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>64400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>65100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>89200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34400</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>60300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E59" s="3">
         <v>37100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>63300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>76800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>52500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>72900</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E60" s="3">
         <v>107300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>105100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>130100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>152800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>163300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>176300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>108300</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1277200</v>
+      </c>
+      <c r="E61" s="3">
         <v>501500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>478900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>433400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>393700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>418400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>375300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>225400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E62" s="3">
         <v>25800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15300</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1682700</v>
+      </c>
+      <c r="E66" s="3">
         <v>634700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>605800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>566600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>548600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>607900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>582300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>349000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,36 +2378,42 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>93300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>82100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>141500</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>62900</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-761200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-709500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-645300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-601900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-302200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-154700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-85100</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>906800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-144000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-84800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-103100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-80900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>216800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>354600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>293400</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-62900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-75000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-51800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-309900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-147500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-69700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>64700</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E83" s="3">
         <v>23600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-42500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-64200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-31400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-54600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-727800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-73200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>12500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>44300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-302300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>93900</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2852,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,36 +3175,42 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>719000</v>
+      </c>
+      <c r="E100" s="3">
         <v>8100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>44300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>109700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>66600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>295800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-58700</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2987,34 +3235,40 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-25500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>34800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-61100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>62100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OPCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OPCH_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>OPCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3032600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2310400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>708900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>817200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>935600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>982200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>922700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>696500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>593400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2350300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1797400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>465900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>547900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>673500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>722300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1394900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1015700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>397500</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>682300</v>
+      </c>
+      <c r="E10" s="3">
         <v>513000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>243000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>269200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>262100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>260000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-472200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-319200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>195900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E14" s="3">
         <v>25800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>26100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>20500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>276200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>55600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>39700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9200</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E15" s="3">
         <v>53700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>23600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>27700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>29500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>26900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2910400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2310700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>702800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>832000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>936100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1271600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1022800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>738600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>586800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>122300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-289400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-42100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>34500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>180400</v>
+      </c>
+      <c r="E21" s="3">
         <v>55700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>30000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>25400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-232100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-93900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E22" s="3">
         <v>76000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>57400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>52100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>37600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>71400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-78200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-51000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-67400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-326400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-138700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-70400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-71800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-21500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-75900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-51600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-304800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-149900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-71600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12300</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-75900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-62800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-314600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-149900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-71600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-68600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-6600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>4700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>2500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>2000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>77000</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-34500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-75900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-62900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-75000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-51800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-309900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-147500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-69700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>64700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-75900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-62900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-75000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-51800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-309900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-147500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-69700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>64700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E41" s="3">
         <v>67100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,129 +1708,144 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>328300</v>
+      </c>
+      <c r="E43" s="3">
         <v>324400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>114900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>85500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>109100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>97400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>131700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>172200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>129100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>158600</v>
+      </c>
+      <c r="E44" s="3">
         <v>115900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>26700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>38000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>36200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>43000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>37200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>34300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>34000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E45" s="3">
         <v>51300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>657000</v>
+      </c>
+      <c r="E46" s="3">
         <v>558700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>174700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>186600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>173300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>183700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>188200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>237000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>235400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1767,71 +1871,80 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>10000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>189900</v>
+      </c>
+      <c r="E48" s="3">
         <v>196700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>38200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>41200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1779700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1811500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>377700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>386300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>397000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>313900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>570800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>603600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>368300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E52" s="3">
         <v>22700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>27500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>70600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2647400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2589500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>583900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>603100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>605000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>530600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>824700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>936900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>642400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,38 +2137,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>282900</v>
+      </c>
+      <c r="E57" s="3">
         <v>221100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>67000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>66000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>64400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>65100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>89200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>63600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34400</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2047,149 +2180,164 @@
         <v>9300</v>
       </c>
       <c r="E58" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>60300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E59" s="3">
         <v>99700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>63300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>76800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>52500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>72900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E60" s="3">
         <v>330000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>107300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>105100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>130100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>152800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>163300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>176300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>108300</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1115100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1277200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>501500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>478900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>433400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>393700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>418400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>375300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>225400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E62" s="3">
         <v>75500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>26200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1631700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1682700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>634700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>605800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>566600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>548600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>607900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>582300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>349000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2391,29 +2558,32 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>93300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>82100</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>141500</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>62900</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-92000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-761200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-709500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-645300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-601900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-302200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-154700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-85100</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1015700</v>
+      </c>
+      <c r="E76" s="3">
         <v>906800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-144000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-84800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-103100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-80900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>216800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>354600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>293400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-75900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-62900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-75000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-51800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-309900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-147500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-69700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>64700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E83" s="3">
         <v>57900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>26900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E89" s="3">
         <v>39500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-42500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-64200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-31400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-54600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-727800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-73200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>44300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-302300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>93900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="E100" s="3">
         <v>719000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>44300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>109700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>66600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>295800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-58700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E102" s="3">
         <v>30700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-25500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>34800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-61100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>62100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OPCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OPCH_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>OPCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3438600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3032600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2310400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>708900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>817200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>935600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>982200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>922700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>696500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>593400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2659000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2350300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1797400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>465900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>547900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>673500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>722300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1394900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1015700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>397500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>779600</v>
+      </c>
+      <c r="E10" s="3">
         <v>682300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>513000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>243000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>269200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>262100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>260000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-472200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-319200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>195900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-11500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>25800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>26100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>20500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>276200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>55600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>39700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9200</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E15" s="3">
         <v>40500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>53700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>23600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>27700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>29500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>26900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3247800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2910400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2310700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>702800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>832000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>936100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1271600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1022800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>738600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>586800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>190800</v>
+      </c>
+      <c r="E18" s="3">
         <v>122300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-289400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-42100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-19700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>34500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>252300</v>
+      </c>
+      <c r="E21" s="3">
         <v>180400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>55700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>30000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-232100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-93900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-14200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E22" s="3">
         <v>107800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>76000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>57400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>52100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>37600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>71400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>38300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-78200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-51000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-67400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-34200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-326400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-138700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-70400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19400</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-71800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-21500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-75900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-51600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-304800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-149900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-71600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12300</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-75900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-62800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-45300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-314600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-149900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-71600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,30 +1418,33 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-68600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-6600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>4700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>2500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>2000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>77000</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E32" s="3">
         <v>19700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-34500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-75900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-62900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-75000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-51800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-309900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-147500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-69700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>64700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-75900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-62900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-75000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-51800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-309900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-147500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-69700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>64700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E41" s="3">
         <v>99300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,141 +1800,156 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>338200</v>
+      </c>
+      <c r="E43" s="3">
         <v>328300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>324400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>114900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>85500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>109100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>97400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>131700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>172200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>129100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>183100</v>
+      </c>
+      <c r="E44" s="3">
         <v>158600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>115900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>26700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>38000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>36200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>43000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>37200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>34300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>34000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E45" s="3">
         <v>70800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>710300</v>
+      </c>
+      <c r="E46" s="3">
         <v>657000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>558700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>174700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>186600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>173300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>183700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>188200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>237000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>235400</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1874,77 +1978,86 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>10000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>186300</v>
+      </c>
+      <c r="E48" s="3">
         <v>189900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>196700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>38200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1843600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1779700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1811500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>377700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>386300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>397000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>313900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>570800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>603600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>368300</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E52" s="3">
         <v>20800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>27500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>70600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2790900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2647400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2589500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>583900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>603100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>605000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>530600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>824700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>936900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>642400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>279200</v>
+      </c>
+      <c r="E57" s="3">
         <v>282900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>221100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>67000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>66000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>64400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>65100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>89200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>63600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34400</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9300</v>
+        <v>6000</v>
       </c>
       <c r="E58" s="3">
         <v>9300</v>
       </c>
       <c r="F58" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>24400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>60300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>174400</v>
+      </c>
+      <c r="E59" s="3">
         <v>141900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>99700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>63300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>76800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>52500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>72900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>459700</v>
+      </c>
+      <c r="E60" s="3">
         <v>434000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>330000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>107300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>105100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>130100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>152800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>163300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>176300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>108300</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1059900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1115100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1277200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>501500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>478900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>433400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>393700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>418400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>375300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>225400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E62" s="3">
         <v>82600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>75500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1615000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1631700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1682700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>634700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>605800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>566600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>548600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>607900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>582300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>349000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2561,29 +2728,32 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>93300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>82100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>141500</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>62900</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-100000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-92000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-761200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-709500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-645300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-601900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-302200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-154700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-85100</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1175900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1015700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>906800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-144000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-84800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-103100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-80900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>216800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>354600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>293400</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-75900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-62900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-75000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-51800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-309900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-147500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-69700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>64700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E83" s="3">
         <v>77900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>57900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>26900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>208600</v>
+      </c>
+      <c r="E89" s="3">
         <v>127400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>39500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-42500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-64200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-54600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-111500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-727800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-73200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>44300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-302300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>93900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-68800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>719000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>44300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>109700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>66600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>295800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-58700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3489,40 +3737,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E102" s="3">
         <v>32200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>34800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-61100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>62100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OPCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OPCH_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>OPCH</t>
   </si>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>20100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>50800</v>
+        <v>30700</v>
       </c>
       <c r="E52" s="3">
         <v>20800</v>

--- a/AAII_Financials/Yearly/OPCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OPCH_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>OPCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3944700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3438600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3032600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2310400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>708900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>817200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>935600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>982200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>922700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>696500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>593400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3077800</v>
+      </c>
+      <c r="E9" s="3">
         <v>2659000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2350300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1797400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>465900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>547900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>673500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>722300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1394900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1015700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>397500</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>866900</v>
+      </c>
+      <c r="E10" s="3">
         <v>779600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>682300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>513000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>243000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>269200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>262100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>260000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-472200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-319200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>195900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-11500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>25800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>26100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>276200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>39700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9200</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E15" s="3">
         <v>63100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>40500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>53700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>23600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>27700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>29500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>26900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3704500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3247800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2910400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2310700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>702800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>832000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>936100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1271600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1022800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>738600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>586800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>240200</v>
+      </c>
+      <c r="E18" s="3">
         <v>190800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>122300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-289400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-42100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-19700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>34500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>325000</v>
+      </c>
+      <c r="E21" s="3">
         <v>252300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>180400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>55700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>30000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-232100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-93900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-14200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E22" s="3">
         <v>67000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>107800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>76000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>57400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>52100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>37600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>71400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>205800</v>
+      </c>
+      <c r="E23" s="3">
         <v>116500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-78200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-51000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-67400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-326400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-138700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-70400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19400</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-23400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-71800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-21500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7100</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E26" s="3">
         <v>139900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-75900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-51600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-304800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-149900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-71600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12300</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E27" s="3">
         <v>139900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-75900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-62800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-45300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-314600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-149900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-71600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1421,30 +1481,33 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-68600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-6600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>4700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>2500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>2000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>77000</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E32" s="3">
         <v>7300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>19700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-34500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E33" s="3">
         <v>139900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-75900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-62900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-75000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-51800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-309900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-147500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-69700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>64700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E35" s="3">
         <v>139900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-75900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-62900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-75000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-51800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-309900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-147500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-69700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>64700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>294200</v>
+      </c>
+      <c r="E41" s="3">
         <v>119400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>99300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>67100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,161 +1892,176 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>377500</v>
+      </c>
+      <c r="E43" s="3">
         <v>338200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>328300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>324400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>114900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>85500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>109100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>97400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>131700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>172200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>129100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>224300</v>
+      </c>
+      <c r="E44" s="3">
         <v>183100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>158600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>115900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>26700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>38000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>36200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>43000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>37200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>34300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>34000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E45" s="3">
         <v>69500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>70800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>51300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>994300</v>
+      </c>
+      <c r="E46" s="3">
         <v>710300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>657000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>558700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>174700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>186600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>173300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>183700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>188200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>237000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>235400</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>20100</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -1974,90 +2078,99 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>10000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E48" s="3">
         <v>186300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>189900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>196700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1897500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1843600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1779700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1811500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>377700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>386300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>397000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>313900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>570800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>603600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>368300</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E52" s="3">
         <v>30700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>70600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3112900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2790900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2647400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2589500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>583900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>603100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>605000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>530600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>824700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>936900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>642400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,44 +2397,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>378800</v>
+      </c>
+      <c r="E57" s="3">
         <v>279200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>282900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>221100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>67000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>66000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>64400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>65100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>89200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>63600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34400</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2313,179 +2446,194 @@
         <v>6000</v>
       </c>
       <c r="E58" s="3">
-        <v>9300</v>
+        <v>6000</v>
       </c>
       <c r="F58" s="3">
         <v>9300</v>
       </c>
       <c r="G58" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>60300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>180600</v>
+      </c>
+      <c r="E59" s="3">
         <v>174400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>141900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>99700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>37400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>63300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>52500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>72900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>565400</v>
+      </c>
+      <c r="E60" s="3">
         <v>459700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>434000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>330000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>107300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>105100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>130100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>152800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>163300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>176300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>108300</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1058200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1059900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1115100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1277200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>501500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>478900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>433400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>393700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>418400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>375300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>225400</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E62" s="3">
         <v>95400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>82600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>75500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1726800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1615000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1631700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1682700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>634700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>605800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>566600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>548600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>607900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>582300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>349000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2731,29 +2898,32 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>93300</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>82100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>141500</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>62900</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>190400</v>
+      </c>
+      <c r="E72" s="3">
         <v>39900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-100000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-92000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-761200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-709500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-645300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-601900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-302200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-154700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-85100</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1386100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1175900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1015700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>906800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-144000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-84800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-103100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-80900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>216800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>354600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>293400</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E81" s="3">
         <v>139900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-75900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-62900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-75000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-51800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-309900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-147500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-69700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>64700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E83" s="3">
         <v>68800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>77900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>57900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>267500</v>
+      </c>
+      <c r="E89" s="3">
         <v>208600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>127400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>39500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-42500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-64200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-54600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26900</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-108100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-111500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-727800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-73200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>44300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-302300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>93900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,45 +3910,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-76900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-68800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>719000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>44300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>109700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>66600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>295800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-58700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3740,43 +3988,49 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E102" s="3">
         <v>20200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-61100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>62100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OPCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OPCH_YR_FIN.xlsx
@@ -2058,7 +2058,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>19400</v>
       </c>
       <c r="E47" s="3">
         <v>20100</v>
@@ -2253,7 +2253,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>40300</v>
+        <v>20900</v>
       </c>
       <c r="E52" s="3">
         <v>30700</v>
